--- a/result files/VIF Intercept Noise.xlsx
+++ b/result files/VIF Intercept Noise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biocartis-my.sharepoint.com/personal/eshahraeeni_biocartis_com/Documents/Documents/Python/INS Characterization/Python/result files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="8_{08388E4A-3DD3-403C-85FB-4C666E5F35CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F5C719A-DE63-41A4-B053-0776B3FE6AAE}"/>
+  <xr:revisionPtr revIDLastSave="427" documentId="8_{08388E4A-3DD3-403C-85FB-4C666E5F35CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAC10D53-67A7-4864-ACE0-2C7915830E0D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{2A61D077-D0D2-4B0F-8DE6-E9A26372B293}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15555" xr2:uid="{2A61D077-D0D2-4B0F-8DE6-E9A26372B293}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -22717,8 +22717,8 @@
   <dimension ref="A1:T157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32356,7 +32356,8 @@
     <sortCondition ref="J2:J24"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
